--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2010-01-31-2020-02-29.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2010-01-31-2020-02-29.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>LF_CA</t>
+  </si>
+  <si>
     <t>FFR_CA</t>
   </si>
   <si>
-    <t>LF_CA</t>
+    <t>CA_LF</t>
   </si>
   <si>
     <t>CA_FFR</t>
-  </si>
-  <si>
-    <t>CA_LF</t>
   </si>
   <si>
     <t>params</t>
@@ -414,16 +414,16 @@
         <v>4</v>
       </c>
       <c r="B2">
+        <v>0.4868474009768672</v>
+      </c>
+      <c r="C2">
         <v>0.05716633442687229</v>
       </c>
-      <c r="C2">
-        <v>0.4868474009768662</v>
-      </c>
       <c r="D2">
-        <v>14.02068439442374</v>
+        <v>0.3511567374768887</v>
       </c>
       <c r="E2">
-        <v>0.3511567374768891</v>
+        <v>14.02068439442373</v>
       </c>
     </row>
     <row r="3" spans="1:5">

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2010-01-31-2020-02-29.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2010-01-31-2020-02-29.xlsx
@@ -14,15 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>LF_CA</t>
-  </si>
-  <si>
-    <t>FFR_CA</t>
-  </si>
-  <si>
-    <t>CA_LF</t>
   </si>
   <si>
     <t>CA_FFR</t>
@@ -389,57 +383,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2">
+        <v>0.4122313011173397</v>
+      </c>
+      <c r="C2">
+        <v>13.71835060590134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0.4868474009768672</v>
-      </c>
-      <c r="C2">
-        <v>0.05716633442687229</v>
-      </c>
-      <c r="D2">
-        <v>0.3511567374768887</v>
-      </c>
-      <c r="E2">
-        <v>14.02068439442373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B3">
-        <v>0</v>
+        <v>1.158850793103738E-12</v>
       </c>
       <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
         <v>0</v>
       </c>
     </row>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2010-01-31-2020-02-29.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2010-01-31-2020-02-29.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>LF_CA</t>
+    <t>FFR_LF</t>
   </si>
   <si>
-    <t>CA_FFR</t>
+    <t>FFR_A</t>
+  </si>
+  <si>
+    <t>A_C</t>
   </si>
   <si>
     <t>params</t>
@@ -383,39 +386,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.4122313011173397</v>
+        <v>0.02253872713255738</v>
       </c>
       <c r="C2">
-        <v>13.71835060590134</v>
+        <v>-0.606434980544923</v>
+      </c>
+      <c r="D2">
+        <v>0.1177409157449474</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>1.158850793103738E-12</v>
+        <v>3.436554278479775E-06</v>
       </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
     </row>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2010-01-31-2020-02-29.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2010-01-31-2020-02-29.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>FFR_LF</t>
+    <t>FFR_A</t>
   </si>
   <si>
-    <t>FFR_A</t>
+    <t>FFR_LF</t>
   </si>
   <si>
     <t>A_C</t>
@@ -408,13 +408,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.02253872713255738</v>
+        <v>-0.6138270220940922</v>
       </c>
       <c r="C2">
-        <v>-0.606434980544923</v>
+        <v>0.02490661960371037</v>
       </c>
       <c r="D2">
-        <v>0.1177409157449474</v>
+        <v>0.1177418064447055</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,10 +422,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3.436554278479775E-06</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>5.752755396049025E-06</v>
       </c>
       <c r="D3">
         <v>0</v>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2010-01-31-2020-02-29.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2010-01-31-2020-02-29.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>FFR_A</t>
-  </si>
-  <si>
-    <t>FFR_LF</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>LF_A</t>
+  </si>
+  <si>
+    <t>LF_C</t>
+  </si>
+  <si>
+    <t>LF_FFR</t>
+  </si>
+  <si>
+    <t>C_A</t>
   </si>
   <si>
     <t>A_C</t>
@@ -386,13 +392,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,32 +408,50 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.6138270220940922</v>
+        <v>1.073780642645883</v>
       </c>
       <c r="C2">
-        <v>0.02490661960371037</v>
+        <v>68.95597881296599</v>
       </c>
       <c r="D2">
-        <v>0.1177418064447055</v>
+        <v>0.5485960976206932</v>
+      </c>
+      <c r="E2">
+        <v>0.0884978075470728</v>
+      </c>
+      <c r="F2">
+        <v>8.838520634608827</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
+        <v>0.6239139719573452</v>
+      </c>
+      <c r="C3">
+        <v>0.00143846535300507</v>
+      </c>
+      <c r="D3">
+        <v>0.5645197436566223</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>5.752755396049025E-06</v>
-      </c>
-      <c r="D3">
+      <c r="F3">
         <v>0</v>
       </c>
     </row>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2010-01-31-2020-02-29.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2010-01-31-2020-02-29.xlsx
@@ -25,10 +25,10 @@
     <t>LF_FFR</t>
   </si>
   <si>
+    <t>A_C</t>
+  </si>
+  <si>
     <t>C_A</t>
-  </si>
-  <si>
-    <t>A_C</t>
   </si>
   <si>
     <t>params</t>
@@ -429,10 +429,10 @@
         <v>0.5485960976206932</v>
       </c>
       <c r="E2">
+        <v>8.838520634608827</v>
+      </c>
+      <c r="F2">
         <v>0.0884978075470728</v>
-      </c>
-      <c r="F2">
-        <v>8.838520634608827</v>
       </c>
     </row>
     <row r="3" spans="1:6">

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2010-01-31-2020-02-29.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2010-01-31-2020-02-29.xlsx
@@ -14,21 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>LF_A</t>
-  </si>
-  <si>
-    <t>LF_C</t>
-  </si>
-  <si>
-    <t>LF_FFR</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>FFR_A</t>
+  </si>
+  <si>
+    <t>FFR_LF</t>
+  </si>
+  <si>
+    <t>C_A</t>
   </si>
   <si>
     <t>A_C</t>
-  </si>
-  <si>
-    <t>C_A</t>
   </si>
   <si>
     <t>params</t>
@@ -392,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,47 +408,38 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2">
+        <v>-0.9809552141819577</v>
+      </c>
+      <c r="C2">
+        <v>0.0243827299360399</v>
+      </c>
+      <c r="D2">
+        <v>0.09733919936953826</v>
+      </c>
+      <c r="E2">
+        <v>9.720664130955255</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1.073780642645883</v>
-      </c>
-      <c r="C2">
-        <v>68.95597881296599</v>
-      </c>
-      <c r="D2">
-        <v>0.5485960976206932</v>
-      </c>
-      <c r="E2">
-        <v>8.838520634608827</v>
-      </c>
-      <c r="F2">
-        <v>0.0884978075470728</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B3">
-        <v>0.6239139719573452</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.00143846535300507</v>
+        <v>1.592584652088114E-05</v>
       </c>
       <c r="D3">
-        <v>0.5645197436566223</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
         <v>0</v>
       </c>
     </row>

--- a/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2010-01-31-2020-02-29.xlsx
+++ b/MappingTheFederalReserve'sResponseFunctionWithDirectedAcyclicGraphs/SUR2010-01-31-2020-02-29.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>FFR_A</t>
-  </si>
-  <si>
-    <t>FFR_LF</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>C_A</t>
   </si>
@@ -389,57 +383,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2">
+        <v>0.09733919936953835</v>
+      </c>
+      <c r="C2">
+        <v>9.720664130955248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>-0.9809552141819577</v>
-      </c>
-      <c r="C2">
-        <v>0.0243827299360399</v>
-      </c>
-      <c r="D2">
-        <v>0.09733919936953826</v>
-      </c>
-      <c r="E2">
-        <v>9.720664130955255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.592584652088114E-05</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
         <v>0</v>
       </c>
     </row>
